--- a/target/test-classes/com/testData/testdata.xlsx
+++ b/target/test-classes/com/testData/testdata.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\eclipse-workspace\AutomationFramework001\src\test\java\com\testcase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\eclipse-workspace\AutomationFramework001\src\test\java\com\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AddCustData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,22 +24,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Username</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>PIN</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>RM 209</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Ahmed@gmail.com</t>
+  </si>
+  <si>
+    <t>Ahmed@123</t>
+  </si>
+  <si>
+    <t>Sana</t>
+  </si>
+  <si>
+    <t>RM 299</t>
+  </si>
+  <si>
+    <t>Sana@gmail.com</t>
+  </si>
+  <si>
+    <t>Sana@123</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -59,7 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -67,15 +135,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -354,26 +442,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3">
+        <v>31778</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2">
+        <v>400001</v>
+      </c>
+      <c r="H2" s="2">
+        <v>9898767654</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3">
+        <v>35837</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2">
+        <v>400001</v>
+      </c>
+      <c r="H3" s="2">
+        <v>9898769654</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+    <hyperlink ref="I3" r:id="rId3"/>
+    <hyperlink ref="J3" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>